--- a/public/files/instrumentos.xlsx
+++ b/public/files/instrumentos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ProgramaTalentoPisco\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Database\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E21ED7-F22A-4F9D-9058-58D9D7367288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16B65048-03A3-4B42-9672-16564B083FEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="435">
   <si>
     <t>UNIDADES</t>
   </si>
@@ -787,12 +786,561 @@
   </si>
   <si>
     <t>ambientes_idambiente</t>
+  </si>
+  <si>
+    <t>LAB02_PC01 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120010</t>
+  </si>
+  <si>
+    <t>JSM1011200012019</t>
+  </si>
+  <si>
+    <t>LAB02_PC02 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120036</t>
+  </si>
+  <si>
+    <t>JSM1011200022019</t>
+  </si>
+  <si>
+    <t>LAB02_PC03 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120015</t>
+  </si>
+  <si>
+    <t>JSM1011200032019</t>
+  </si>
+  <si>
+    <t>LAB02_PC04 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120006</t>
+  </si>
+  <si>
+    <t>JSM1011200042019</t>
+  </si>
+  <si>
+    <t>LAB02_PC05 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120019</t>
+  </si>
+  <si>
+    <t>JSM1011200052019</t>
+  </si>
+  <si>
+    <t>LAB02_PC06 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120016</t>
+  </si>
+  <si>
+    <t>JSM1011200062019</t>
+  </si>
+  <si>
+    <t>LAB02_PC07 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>JSM1011200072019</t>
+  </si>
+  <si>
+    <t>LAB02_PC08 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120013</t>
+  </si>
+  <si>
+    <t>JSM1011200082019</t>
+  </si>
+  <si>
+    <t>LAB02_PC09 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>JSM1011200092019</t>
+  </si>
+  <si>
+    <t>LAB02_PC10 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120020</t>
+  </si>
+  <si>
+    <t>JSM1011200102019</t>
+  </si>
+  <si>
+    <t>LAB02_PC11 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120003</t>
+  </si>
+  <si>
+    <t>JSM1011200112019</t>
+  </si>
+  <si>
+    <t>LAB02_PC14 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120014</t>
+  </si>
+  <si>
+    <t>JSM1011200122019</t>
+  </si>
+  <si>
+    <t>LAB02_PC16 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120002</t>
+  </si>
+  <si>
+    <t>JSM1011200132019</t>
+  </si>
+  <si>
+    <t>LAB02_PC30 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120033</t>
+  </si>
+  <si>
+    <t>JSM1011200142019</t>
+  </si>
+  <si>
+    <t>LAB02_PC31 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190262860004</t>
+  </si>
+  <si>
+    <t>JSM1011200152019</t>
+  </si>
+  <si>
+    <t>LAB02_PC32 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120030</t>
+  </si>
+  <si>
+    <t>JSM1011200162019</t>
+  </si>
+  <si>
+    <t>LAB02_PC33 VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120024</t>
+  </si>
+  <si>
+    <t>JSM1011200172019</t>
+  </si>
+  <si>
+    <t>LAB02_PCDOC VO1300 CI3 8100/4GB/1TB/LX ADVANCE</t>
+  </si>
+  <si>
+    <t>PE190263120031</t>
+  </si>
+  <si>
+    <t>JSM1011200182019</t>
+  </si>
+  <si>
+    <t>LAB02_MON01 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H091125</t>
+  </si>
+  <si>
+    <t>JSM1011200192019</t>
+  </si>
+  <si>
+    <t>LAB02_MON02 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H091780</t>
+  </si>
+  <si>
+    <t>JSM1011200202019</t>
+  </si>
+  <si>
+    <t>LAB02_MON03 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H090361</t>
+  </si>
+  <si>
+    <t>JSM1011200212019</t>
+  </si>
+  <si>
+    <t>LAB02_MON04 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV0000000000</t>
+  </si>
+  <si>
+    <t>JSM1011200222019</t>
+  </si>
+  <si>
+    <t>LAB02_MON05 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H091779</t>
+  </si>
+  <si>
+    <t>JSM1011200232019</t>
+  </si>
+  <si>
+    <t>LAB02_MON06 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H090518</t>
+  </si>
+  <si>
+    <t>JSM1011200242019</t>
+  </si>
+  <si>
+    <t>LAB02_MON07 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H091809</t>
+  </si>
+  <si>
+    <t>JSM1011200252019</t>
+  </si>
+  <si>
+    <t>LAB02_MON08 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H091795</t>
+  </si>
+  <si>
+    <t>JSM1011200262019</t>
+  </si>
+  <si>
+    <t>LAB02_MON09 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H091777</t>
+  </si>
+  <si>
+    <t>JSM1011200272019</t>
+  </si>
+  <si>
+    <t>LAB02_MON10 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H090373</t>
+  </si>
+  <si>
+    <t>JSM1011200282019</t>
+  </si>
+  <si>
+    <t>LAB02_MON11 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H090369</t>
+  </si>
+  <si>
+    <t>JSM1011200292019</t>
+  </si>
+  <si>
+    <t>LAB02_MON14 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H090362</t>
+  </si>
+  <si>
+    <t>JSM1011200302019</t>
+  </si>
+  <si>
+    <t>LAB02_MON16 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H091275</t>
+  </si>
+  <si>
+    <t>JSM1011200312019</t>
+  </si>
+  <si>
+    <t>LAB02_MON30 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H091785</t>
+  </si>
+  <si>
+    <t>JSM1011200322019</t>
+  </si>
+  <si>
+    <t>LAB02_MON31 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H090533</t>
+  </si>
+  <si>
+    <t>JSM1011200332019</t>
+  </si>
+  <si>
+    <t>LAB02_MON32 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H090491</t>
+  </si>
+  <si>
+    <t>JSM1011200342019</t>
+  </si>
+  <si>
+    <t>LAB02_MON33 ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H091802</t>
+  </si>
+  <si>
+    <t>JSM1011200352019</t>
+  </si>
+  <si>
+    <t>LAB02_MONDOC ADVANCE LED 19.5</t>
+  </si>
+  <si>
+    <t>ADV2018H090998</t>
+  </si>
+  <si>
+    <t>JSM1011200362019</t>
+  </si>
+  <si>
+    <t>M/ADVANCE</t>
+  </si>
+  <si>
+    <t>JSM1011200382019</t>
+  </si>
+  <si>
+    <t>JSM1011200392019</t>
+  </si>
+  <si>
+    <t>JSM1011200402019</t>
+  </si>
+  <si>
+    <t>JSM1011200412019</t>
+  </si>
+  <si>
+    <t>JSM1011200422019</t>
+  </si>
+  <si>
+    <t>JSM1011200432019</t>
+  </si>
+  <si>
+    <t>JSM1011200442019</t>
+  </si>
+  <si>
+    <t>JSM1011200452019</t>
+  </si>
+  <si>
+    <t>JSM1011200462019</t>
+  </si>
+  <si>
+    <t>JSM1011200472019</t>
+  </si>
+  <si>
+    <t>JSM1011200482019</t>
+  </si>
+  <si>
+    <t>JSM1011200492019</t>
+  </si>
+  <si>
+    <t>JSM1011200502019</t>
+  </si>
+  <si>
+    <t>JSM1011200512019</t>
+  </si>
+  <si>
+    <t>JSM1011200522019</t>
+  </si>
+  <si>
+    <t>JSM1011200532019</t>
+  </si>
+  <si>
+    <t>JSM1011200542019</t>
+  </si>
+  <si>
+    <t>JSM1011200552019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOUSE OPTICO BLACK </t>
+  </si>
+  <si>
+    <t>ADV-KBO8CM</t>
+  </si>
+  <si>
+    <t>JSM1011200562019</t>
+  </si>
+  <si>
+    <t>JSM1011200572019</t>
+  </si>
+  <si>
+    <t>JSM1011200582019</t>
+  </si>
+  <si>
+    <t>JSM1011200592019</t>
+  </si>
+  <si>
+    <t>JSM1011200602019</t>
+  </si>
+  <si>
+    <t>JSM1011200612019</t>
+  </si>
+  <si>
+    <t>JSM1011200622019</t>
+  </si>
+  <si>
+    <t>JSM1011200632019</t>
+  </si>
+  <si>
+    <t>JSM1011200642019</t>
+  </si>
+  <si>
+    <t>JSM1011200652019</t>
+  </si>
+  <si>
+    <t>JSM1011200662019</t>
+  </si>
+  <si>
+    <t>JSM1011200672019</t>
+  </si>
+  <si>
+    <t>JSM1011200682019</t>
+  </si>
+  <si>
+    <t>JSM1011200692019</t>
+  </si>
+  <si>
+    <t>JSM1011200702019</t>
+  </si>
+  <si>
+    <t>JSM1011200712019</t>
+  </si>
+  <si>
+    <t>JSM1011200722019</t>
+  </si>
+  <si>
+    <t>JSM1011200732019</t>
+  </si>
+  <si>
+    <t>B21X233003779</t>
+  </si>
+  <si>
+    <t>JSM1011200752019</t>
+  </si>
+  <si>
+    <t>LAB02_PROYECTOR EPSON S39</t>
+  </si>
+  <si>
+    <t>X52M891592L</t>
+  </si>
+  <si>
+    <t>JSM1011200762019</t>
+  </si>
+  <si>
+    <t>LAB02_ECRAN</t>
+  </si>
+  <si>
+    <t>JSM1011200772019</t>
+  </si>
+  <si>
+    <t>JSM1011200792019</t>
+  </si>
+  <si>
+    <t>JSM1011200802019</t>
+  </si>
+  <si>
+    <t>JSM1011200812019</t>
+  </si>
+  <si>
+    <t>JSM1011200822019</t>
+  </si>
+  <si>
+    <t>JSM1011200832019</t>
+  </si>
+  <si>
+    <t>JSM1011200842019</t>
+  </si>
+  <si>
+    <t>JSM1011200852019</t>
+  </si>
+  <si>
+    <t>JSM1011200862019</t>
+  </si>
+  <si>
+    <t>JSM1011200872019</t>
+  </si>
+  <si>
+    <t>JSM1011200882019</t>
+  </si>
+  <si>
+    <t>JSM1011200892019</t>
+  </si>
+  <si>
+    <t>JSM1011200902019</t>
+  </si>
+  <si>
+    <t>JSM1011200912019</t>
+  </si>
+  <si>
+    <t>JSM1011200922019</t>
+  </si>
+  <si>
+    <t>JSM1011200932019</t>
+  </si>
+  <si>
+    <t>JSM1011200942019</t>
+  </si>
+  <si>
+    <t>JSM1011200952019</t>
+  </si>
+  <si>
+    <t>JSM1011200962019</t>
+  </si>
+  <si>
+    <t>JSM1011200972019</t>
+  </si>
+  <si>
+    <t>JSM1011200982019</t>
+  </si>
+  <si>
+    <t>JSM1011200992019</t>
+  </si>
+  <si>
+    <t>JSM1011201002019</t>
+  </si>
+  <si>
+    <t>JSM1011201012019</t>
+  </si>
+  <si>
+    <t>JSM1011201022019</t>
+  </si>
+  <si>
+    <t>JSM1011201032019</t>
+  </si>
+  <si>
+    <t>JSM1011201042019</t>
+  </si>
+  <si>
+    <t>JSM1011201052019</t>
+  </si>
+  <si>
+    <t>JSM1011201062019</t>
+  </si>
+  <si>
+    <t>JSM1011200742019</t>
+  </si>
+  <si>
+    <t>LAB02_RACK DE FIERRO PARA PROYECTOR CON 1 CANDADO</t>
+  </si>
+  <si>
+    <t>JSM1011200782019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -831,7 +1379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,6 +1395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +1445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -927,6 +1481,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1240,19 +1809,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFDFF74-DD3A-426B-82FA-8C2D6AC4E5C2}">
-  <dimension ref="A1:J137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1318,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1348,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,7 +1977,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1438,7 +2007,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1468,7 +2037,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1528,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1558,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1588,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1618,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1648,7 +2217,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1678,7 +2247,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,7 +2277,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,7 +2307,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1768,7 +2337,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1798,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1828,7 +2397,7 @@
         <v>6</v>
       </c>
       <c r="J19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1858,7 +2427,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1888,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="J21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1918,7 +2487,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1948,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="J23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1978,7 +2547,7 @@
         <v>6</v>
       </c>
       <c r="J24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2008,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2038,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2068,7 +2637,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2098,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2128,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2158,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="J30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2188,7 +2757,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2248,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="J33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2278,7 +2847,7 @@
         <v>6</v>
       </c>
       <c r="J34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2308,7 +2877,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,7 +2907,7 @@
         <v>6</v>
       </c>
       <c r="J36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2368,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2398,7 +2967,7 @@
         <v>6</v>
       </c>
       <c r="J38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2428,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2458,7 +3027,7 @@
         <v>6</v>
       </c>
       <c r="J40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2488,7 +3057,7 @@
         <v>6</v>
       </c>
       <c r="J41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2518,7 +3087,7 @@
         <v>6</v>
       </c>
       <c r="J42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2548,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="J43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2578,7 +3147,7 @@
         <v>6</v>
       </c>
       <c r="J44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2608,7 +3177,7 @@
         <v>6</v>
       </c>
       <c r="J45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2638,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="J46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2668,7 +3237,7 @@
         <v>6</v>
       </c>
       <c r="J47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2698,7 +3267,7 @@
         <v>6</v>
       </c>
       <c r="J48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2728,7 +3297,7 @@
         <v>6</v>
       </c>
       <c r="J49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2758,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="J50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2788,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="J51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2818,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="J52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2848,7 +3417,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2878,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="J54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2908,7 +3477,7 @@
         <v>6</v>
       </c>
       <c r="J55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2938,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2968,7 +3537,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2998,7 +3567,7 @@
         <v>6</v>
       </c>
       <c r="J58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3028,7 +3597,7 @@
         <v>6</v>
       </c>
       <c r="J59" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3058,7 +3627,7 @@
         <v>6</v>
       </c>
       <c r="J60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3088,7 +3657,7 @@
         <v>6</v>
       </c>
       <c r="J61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3118,7 +3687,7 @@
         <v>6</v>
       </c>
       <c r="J62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3148,7 +3717,7 @@
         <v>6</v>
       </c>
       <c r="J63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3178,7 +3747,7 @@
         <v>6</v>
       </c>
       <c r="J64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3208,7 +3777,7 @@
         <v>6</v>
       </c>
       <c r="J65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3238,7 +3807,7 @@
         <v>6</v>
       </c>
       <c r="J66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3268,7 +3837,7 @@
         <v>6</v>
       </c>
       <c r="J67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3298,7 +3867,7 @@
         <v>6</v>
       </c>
       <c r="J68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3328,7 +3897,7 @@
         <v>6</v>
       </c>
       <c r="J69" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3358,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="J70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3388,7 +3957,7 @@
         <v>6</v>
       </c>
       <c r="J71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3418,7 +3987,7 @@
         <v>6</v>
       </c>
       <c r="J72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3448,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="J73" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3478,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="J74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3508,7 +4077,7 @@
         <v>6</v>
       </c>
       <c r="J75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3538,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="J76" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3568,7 +4137,7 @@
         <v>6</v>
       </c>
       <c r="J77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3598,7 +4167,7 @@
         <v>6</v>
       </c>
       <c r="J78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3628,7 +4197,7 @@
         <v>6</v>
       </c>
       <c r="J79" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3658,7 +4227,7 @@
         <v>6</v>
       </c>
       <c r="J80" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3688,7 +4257,7 @@
         <v>6</v>
       </c>
       <c r="J81" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3718,7 +4287,7 @@
         <v>6</v>
       </c>
       <c r="J82" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3748,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="J83" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3778,7 +4347,7 @@
         <v>6</v>
       </c>
       <c r="J84" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3808,7 +4377,7 @@
         <v>6</v>
       </c>
       <c r="J85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3838,7 +4407,7 @@
         <v>6</v>
       </c>
       <c r="J86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3868,7 +4437,7 @@
         <v>6</v>
       </c>
       <c r="J87" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3898,7 +4467,7 @@
         <v>6</v>
       </c>
       <c r="J88" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3928,7 +4497,7 @@
         <v>6</v>
       </c>
       <c r="J89" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3958,7 +4527,7 @@
         <v>6</v>
       </c>
       <c r="J90" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3988,7 +4557,7 @@
         <v>6</v>
       </c>
       <c r="J91" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4018,7 +4587,7 @@
         <v>6</v>
       </c>
       <c r="J92" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4048,7 +4617,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4078,7 +4647,7 @@
         <v>6</v>
       </c>
       <c r="J94" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4108,7 +4677,7 @@
         <v>6</v>
       </c>
       <c r="J95" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4138,7 +4707,7 @@
         <v>6</v>
       </c>
       <c r="J96" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4168,7 +4737,7 @@
         <v>6</v>
       </c>
       <c r="J97" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4198,7 +4767,7 @@
         <v>6</v>
       </c>
       <c r="J98" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4228,7 +4797,7 @@
         <v>6</v>
       </c>
       <c r="J99" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4258,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="J100" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4288,7 +4857,7 @@
         <v>6</v>
       </c>
       <c r="J101" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -4318,7 +4887,7 @@
         <v>6</v>
       </c>
       <c r="J102" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4348,7 +4917,7 @@
         <v>6</v>
       </c>
       <c r="J103" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -4378,7 +4947,7 @@
         <v>6</v>
       </c>
       <c r="J104" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4408,7 +4977,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4438,7 +5007,7 @@
         <v>6</v>
       </c>
       <c r="J106" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4468,7 +5037,7 @@
         <v>6</v>
       </c>
       <c r="J107" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4498,7 +5067,7 @@
         <v>6</v>
       </c>
       <c r="J108" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4528,7 +5097,7 @@
         <v>6</v>
       </c>
       <c r="J109" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4558,7 +5127,7 @@
         <v>6</v>
       </c>
       <c r="J110" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4588,7 +5157,7 @@
         <v>6</v>
       </c>
       <c r="J111" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4618,7 +5187,7 @@
         <v>6</v>
       </c>
       <c r="J112" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4648,7 +5217,7 @@
         <v>6</v>
       </c>
       <c r="J113" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4678,7 +5247,7 @@
         <v>6</v>
       </c>
       <c r="J114" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4708,7 +5277,7 @@
         <v>6</v>
       </c>
       <c r="J115" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4738,7 +5307,7 @@
         <v>6</v>
       </c>
       <c r="J116" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4768,7 +5337,7 @@
         <v>6</v>
       </c>
       <c r="J117" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4798,7 +5367,7 @@
         <v>6</v>
       </c>
       <c r="J118" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4828,7 +5397,7 @@
         <v>6</v>
       </c>
       <c r="J119" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4858,7 +5427,7 @@
         <v>6</v>
       </c>
       <c r="J120" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4888,7 +5457,7 @@
         <v>6</v>
       </c>
       <c r="J121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4918,7 +5487,7 @@
         <v>6</v>
       </c>
       <c r="J122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4948,7 +5517,7 @@
         <v>6</v>
       </c>
       <c r="J123" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4978,7 +5547,7 @@
         <v>6</v>
       </c>
       <c r="J124" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -5004,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="J125" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -5030,7 +5599,7 @@
         <v>6</v>
       </c>
       <c r="J126" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5056,7 +5625,7 @@
         <v>6</v>
       </c>
       <c r="J127" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5082,7 +5651,7 @@
         <v>6</v>
       </c>
       <c r="J128" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5106,7 +5675,7 @@
         <v>6</v>
       </c>
       <c r="J129" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5132,7 +5701,7 @@
         <v>6</v>
       </c>
       <c r="J130" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5162,7 +5731,7 @@
         <v>6</v>
       </c>
       <c r="J131" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5186,7 +5755,7 @@
         <v>6</v>
       </c>
       <c r="J132" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -5210,7 +5779,7 @@
         <v>6</v>
       </c>
       <c r="J133" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -5234,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="J134" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5264,7 +5833,7 @@
         <v>6</v>
       </c>
       <c r="J135" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5290,7 +5859,7 @@
         <v>6</v>
       </c>
       <c r="J136" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5316,6 +5885,3448 @@
         <v>241</v>
       </c>
       <c r="J137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="15">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C138" s="15">
+        <v>1</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J138" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H139" s="2"/>
+      <c r="I139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J139" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H140" s="2"/>
+      <c r="I140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J140" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H141" s="2"/>
+      <c r="I141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J141" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H142" s="2"/>
+      <c r="I142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J142" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H143" s="2"/>
+      <c r="I143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J143" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H144" s="2"/>
+      <c r="I144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J144" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C145" s="2">
+        <v>1</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H145" s="2"/>
+      <c r="I145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J145" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C146" s="2">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H146" s="2"/>
+      <c r="I146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J146" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H147" s="2"/>
+      <c r="I147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J147" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C148" s="2">
+        <v>1</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H148" s="2"/>
+      <c r="I148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J148" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H149" s="2"/>
+      <c r="I149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J149" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H150" s="2"/>
+      <c r="I150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J150" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H151" s="2"/>
+      <c r="I151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J151" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C152" s="2">
+        <v>1</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H152" s="2"/>
+      <c r="I152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J152" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H153" s="2"/>
+      <c r="I153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J153" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C154" s="2">
+        <v>1</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H154" s="2"/>
+      <c r="I154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J154" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H155" s="2"/>
+      <c r="I155" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J155" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H156" s="2"/>
+      <c r="I156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J156" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H157" s="2"/>
+      <c r="I157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J157" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H158" s="2"/>
+      <c r="I158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J158" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C159" s="2">
+        <v>1</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H159" s="2"/>
+      <c r="I159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J159" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C160" s="2">
+        <v>1</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H160" s="2"/>
+      <c r="I160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J160" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H161" s="2"/>
+      <c r="I161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J161" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H162" s="2"/>
+      <c r="I162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J162" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C163" s="2">
+        <v>1</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H163" s="2"/>
+      <c r="I163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J163" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H164" s="2"/>
+      <c r="I164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J164" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C165" s="2">
+        <v>1</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H165" s="2"/>
+      <c r="I165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J165" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C166" s="2">
+        <v>1</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H166" s="2"/>
+      <c r="I166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J166" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H167" s="2"/>
+      <c r="I167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J167" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C168" s="2">
+        <v>1</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H168" s="2"/>
+      <c r="I168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J168" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H169" s="2"/>
+      <c r="I169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J169" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H170" s="2"/>
+      <c r="I170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J170" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H171" s="2"/>
+      <c r="I171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J171" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C172" s="2">
+        <v>1</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H172" s="2"/>
+      <c r="I172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J172" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C173" s="2">
+        <v>1</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H173" s="2"/>
+      <c r="I173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J173" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C174" s="2">
+        <v>1</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H174" s="2"/>
+      <c r="I174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J174" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C175" s="2">
+        <v>1</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H175" s="2"/>
+      <c r="I175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J175" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C176" s="2">
+        <v>1</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H176" s="2"/>
+      <c r="I176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J176" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H177" s="2"/>
+      <c r="I177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J177" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C178" s="2">
+        <v>1</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H178" s="2"/>
+      <c r="I178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J178" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C179" s="2">
+        <v>1</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H179" s="2"/>
+      <c r="I179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J179" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C180" s="2">
+        <v>1</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H180" s="2"/>
+      <c r="I180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J180" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C181" s="2">
+        <v>1</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H181" s="2"/>
+      <c r="I181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J181" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C182" s="2">
+        <v>1</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H182" s="2"/>
+      <c r="I182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J182" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C183" s="2">
+        <v>1</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H183" s="2"/>
+      <c r="I183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J183" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C184" s="2">
+        <v>1</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H184" s="2"/>
+      <c r="I184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J184" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C185" s="2">
+        <v>1</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H185" s="2"/>
+      <c r="I185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J185" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C186" s="2">
+        <v>1</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H186" s="2"/>
+      <c r="I186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J186" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C187" s="2">
+        <v>1</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H187" s="2"/>
+      <c r="I187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J187" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C188" s="2">
+        <v>1</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H188" s="2"/>
+      <c r="I188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J188" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H189" s="2"/>
+      <c r="I189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J189" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H190" s="2"/>
+      <c r="I190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J190" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C191" s="2">
+        <v>1</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H191" s="2"/>
+      <c r="I191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J191" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C192" s="2">
+        <v>1</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H192" s="2"/>
+      <c r="I192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J192" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C193" s="2">
+        <v>1</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E193" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H193" s="2"/>
+      <c r="I193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J193" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C194" s="2">
+        <v>1</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H194" s="2"/>
+      <c r="I194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J194" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C195" s="2">
+        <v>1</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H195" s="2"/>
+      <c r="I195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J195" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C196" s="2">
+        <v>1</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H196" s="2"/>
+      <c r="I196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J196" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C197" s="2">
+        <v>1</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H197" s="2"/>
+      <c r="I197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J197" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C198" s="2">
+        <v>1</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H198" s="2"/>
+      <c r="I198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J198" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E199" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="H199" s="2"/>
+      <c r="I199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J199" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C200" s="2">
+        <v>1</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E200" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H200" s="2"/>
+      <c r="I200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J200" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C201" s="2">
+        <v>1</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E201" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H201" s="2"/>
+      <c r="I201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J201" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C202" s="2">
+        <v>1</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E202" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H202" s="2"/>
+      <c r="I202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J202" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E203" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H203" s="2"/>
+      <c r="I203" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J203" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H204" s="2"/>
+      <c r="I204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J204" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E205" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H205" s="2"/>
+      <c r="I205" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J205" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C206" s="2">
+        <v>1</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E206" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H206" s="2"/>
+      <c r="I206" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J206" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C207" s="2">
+        <v>1</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E207" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H207" s="2"/>
+      <c r="I207" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J207" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E208" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H208" s="2"/>
+      <c r="I208" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J208" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C209" s="2">
+        <v>1</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H209" s="2"/>
+      <c r="I209" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J209" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C210" s="2">
+        <v>1</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H210" s="2"/>
+      <c r="I210" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J210" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>210</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C211" s="2">
+        <v>1</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H211" s="2"/>
+      <c r="I211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J211" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C212" s="2">
+        <v>1</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H212" s="2"/>
+      <c r="I212" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J212" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C213" s="2">
+        <v>1</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H213" s="2"/>
+      <c r="I213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J213" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H214" s="2"/>
+      <c r="I214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J214" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C215" s="2">
+        <v>1</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H215" s="2"/>
+      <c r="I215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J215" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C216" s="2">
+        <v>1</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H216" s="2"/>
+      <c r="I216" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J216" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C217" s="2">
+        <v>1</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H217" s="2"/>
+      <c r="I217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J217" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C218" s="2">
+        <v>1</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H218" s="2"/>
+      <c r="I218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J218" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C219" s="2">
+        <v>1</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H219" s="2"/>
+      <c r="I219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J219" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H220" s="2"/>
+      <c r="I220" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J220" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C221" s="2">
+        <v>1</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H221" s="2"/>
+      <c r="I221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J221" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C222" s="2">
+        <v>1</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H222" s="2"/>
+      <c r="I222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J222" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C223" s="2">
+        <v>1</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H223" s="2"/>
+      <c r="I223" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J223" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C224" s="2">
+        <v>1</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="H224" s="2"/>
+      <c r="I224" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J224" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="H225" s="2"/>
+      <c r="I225" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J225" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="H226" s="2"/>
+      <c r="I226" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J226" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C227" s="2">
+        <v>1</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="H227" s="2"/>
+      <c r="I227" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J227" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C228" s="2">
+        <v>1</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H228" s="2"/>
+      <c r="I228" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J228" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C229" s="2">
+        <v>1</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="H229" s="2"/>
+      <c r="I229" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J229" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C230" s="2">
+        <v>1</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H230" s="2"/>
+      <c r="I230" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J230" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C231" s="2">
+        <v>1</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H231" s="2"/>
+      <c r="I231" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J231" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C232" s="2">
+        <v>1</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H232" s="2"/>
+      <c r="I232" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J232" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C233" s="2">
+        <v>1</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="H233" s="2"/>
+      <c r="I233" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J233" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C234" s="2">
+        <v>1</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H234" s="2"/>
+      <c r="I234" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J234" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C235" s="2">
+        <v>1</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H235" s="2"/>
+      <c r="I235" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J235" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C236" s="2">
+        <v>1</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H236" s="2"/>
+      <c r="I236" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J236" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C237" s="2">
+        <v>1</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H237" s="2"/>
+      <c r="I237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J237" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C238" s="2">
+        <v>1</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H238" s="2"/>
+      <c r="I238" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J238" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="H239" s="2"/>
+      <c r="I239" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J239" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" s="2">
+        <v>1</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H240" s="2"/>
+      <c r="I240" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J240" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>240</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F241" s="8"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J241" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C242" s="2">
+        <v>1</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G242" s="4"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J242" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C243" s="2">
+        <v>1</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G243" s="4"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J243" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C244" s="2">
+        <v>1</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G244" s="4"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J244" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>244</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C245" s="2">
+        <v>1</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F245" s="8"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J245" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>245</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C246" s="2">
+        <v>1</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F246" s="8"/>
+      <c r="G246" s="4"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J246" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>246</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C247" s="2">
+        <v>1</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="H247" s="2"/>
+      <c r="I247" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J247" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C248" s="2">
+        <v>1</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F248" s="8"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J248" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C249" s="2">
+        <v>1</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F249" s="8"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J249" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>249</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C250" s="2">
+        <v>1</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F250" s="8"/>
+      <c r="G250" s="4"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J250" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C251" s="2">
+        <v>1</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="H251" s="2"/>
+      <c r="I251" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J251" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C252" s="14">
+        <v>1</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F252" s="13"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J252" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>252</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C253" s="14">
+        <v>1</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F253" s="13"/>
+      <c r="G253" s="4"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J253" s="2">
         <v>2</v>
       </c>
     </row>

--- a/public/files/instrumentos.xlsx
+++ b/public/files/instrumentos.xlsx
@@ -1812,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,7 +3057,7 @@
         <v>6</v>
       </c>
       <c r="J41" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>6</v>
       </c>
       <c r="J42" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="J43" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3147,7 +3147,7 @@
         <v>6</v>
       </c>
       <c r="J44" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3177,7 +3177,7 @@
         <v>6</v>
       </c>
       <c r="J45" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="J46" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>6</v>
       </c>
       <c r="J47" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3267,7 +3267,7 @@
         <v>6</v>
       </c>
       <c r="J48" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3297,7 +3297,7 @@
         <v>6</v>
       </c>
       <c r="J49" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="J50" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3357,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="J51" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3387,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="J52" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="J54" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3477,7 +3477,7 @@
         <v>6</v>
       </c>
       <c r="J55" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3537,7 +3537,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
         <v>6</v>
       </c>
       <c r="J58" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3597,7 +3597,7 @@
         <v>6</v>
       </c>
       <c r="J59" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>6</v>
       </c>
       <c r="J60" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>6</v>
       </c>
       <c r="J61" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3687,7 +3687,7 @@
         <v>6</v>
       </c>
       <c r="J62" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
         <v>6</v>
       </c>
       <c r="J63" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>6</v>
       </c>
       <c r="J64" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3777,7 +3777,7 @@
         <v>6</v>
       </c>
       <c r="J65" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3807,7 +3807,7 @@
         <v>6</v>
       </c>
       <c r="J66" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
         <v>6</v>
       </c>
       <c r="J67" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3867,7 +3867,7 @@
         <v>6</v>
       </c>
       <c r="J68" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3897,7 +3897,7 @@
         <v>6</v>
       </c>
       <c r="J69" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3927,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="J70" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3957,7 +3957,7 @@
         <v>6</v>
       </c>
       <c r="J71" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
         <v>6</v>
       </c>
       <c r="J72" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="J73" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4047,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="J74" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4077,7 +4077,7 @@
         <v>6</v>
       </c>
       <c r="J75" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4107,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="J76" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4137,7 +4137,7 @@
         <v>6</v>
       </c>
       <c r="J77" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4167,7 +4167,7 @@
         <v>6</v>
       </c>
       <c r="J78" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4197,7 +4197,7 @@
         <v>6</v>
       </c>
       <c r="J79" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4227,7 +4227,7 @@
         <v>6</v>
       </c>
       <c r="J80" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4257,7 +4257,7 @@
         <v>6</v>
       </c>
       <c r="J81" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
         <v>6</v>
       </c>
       <c r="J82" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4317,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="J83" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4347,7 +4347,7 @@
         <v>6</v>
       </c>
       <c r="J84" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4377,7 +4377,7 @@
         <v>6</v>
       </c>
       <c r="J85" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>6</v>
       </c>
       <c r="J86" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4437,7 +4437,7 @@
         <v>6</v>
       </c>
       <c r="J87" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4467,7 +4467,7 @@
         <v>6</v>
       </c>
       <c r="J88" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4497,7 +4497,7 @@
         <v>6</v>
       </c>
       <c r="J89" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4527,7 +4527,7 @@
         <v>6</v>
       </c>
       <c r="J90" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4557,7 +4557,7 @@
         <v>6</v>
       </c>
       <c r="J91" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4587,7 +4587,7 @@
         <v>6</v>
       </c>
       <c r="J92" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4647,7 +4647,7 @@
         <v>6</v>
       </c>
       <c r="J94" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4677,7 +4677,7 @@
         <v>6</v>
       </c>
       <c r="J95" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4707,7 +4707,7 @@
         <v>6</v>
       </c>
       <c r="J96" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4737,7 +4737,7 @@
         <v>6</v>
       </c>
       <c r="J97" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4767,7 +4767,7 @@
         <v>6</v>
       </c>
       <c r="J98" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4797,7 +4797,7 @@
         <v>6</v>
       </c>
       <c r="J99" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4827,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="J100" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4857,7 +4857,7 @@
         <v>6</v>
       </c>
       <c r="J101" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -4887,7 +4887,7 @@
         <v>6</v>
       </c>
       <c r="J102" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4917,7 +4917,7 @@
         <v>6</v>
       </c>
       <c r="J103" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -4947,7 +4947,7 @@
         <v>6</v>
       </c>
       <c r="J104" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4977,7 +4977,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -5007,7 +5007,7 @@
         <v>6</v>
       </c>
       <c r="J106" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -5037,7 +5037,7 @@
         <v>6</v>
       </c>
       <c r="J107" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -5067,7 +5067,7 @@
         <v>6</v>
       </c>
       <c r="J108" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -5097,7 +5097,7 @@
         <v>6</v>
       </c>
       <c r="J109" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -5127,7 +5127,7 @@
         <v>6</v>
       </c>
       <c r="J110" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -5157,7 +5157,7 @@
         <v>6</v>
       </c>
       <c r="J111" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -5187,7 +5187,7 @@
         <v>6</v>
       </c>
       <c r="J112" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5217,7 +5217,7 @@
         <v>6</v>
       </c>
       <c r="J113" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5247,7 +5247,7 @@
         <v>6</v>
       </c>
       <c r="J114" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
         <v>6</v>
       </c>
       <c r="J115" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5307,7 +5307,7 @@
         <v>6</v>
       </c>
       <c r="J116" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5337,7 +5337,7 @@
         <v>6</v>
       </c>
       <c r="J117" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -5367,7 +5367,7 @@
         <v>6</v>
       </c>
       <c r="J118" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
         <v>6</v>
       </c>
       <c r="J119" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -5427,7 +5427,7 @@
         <v>6</v>
       </c>
       <c r="J120" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -5457,7 +5457,7 @@
         <v>6</v>
       </c>
       <c r="J121" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
         <v>6</v>
       </c>
       <c r="J122" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -5517,7 +5517,7 @@
         <v>6</v>
       </c>
       <c r="J123" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -5547,7 +5547,7 @@
         <v>6</v>
       </c>
       <c r="J124" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -5573,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="J125" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -5599,7 +5599,7 @@
         <v>6</v>
       </c>
       <c r="J126" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5625,7 +5625,7 @@
         <v>6</v>
       </c>
       <c r="J127" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5651,7 +5651,7 @@
         <v>6</v>
       </c>
       <c r="J128" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5675,7 +5675,7 @@
         <v>6</v>
       </c>
       <c r="J129" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5701,7 +5701,7 @@
         <v>6</v>
       </c>
       <c r="J130" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5731,7 +5731,7 @@
         <v>6</v>
       </c>
       <c r="J131" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5755,7 +5755,7 @@
         <v>6</v>
       </c>
       <c r="J132" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -5779,7 +5779,7 @@
         <v>6</v>
       </c>
       <c r="J133" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -5803,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="J134" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5833,7 +5833,7 @@
         <v>6</v>
       </c>
       <c r="J135" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5859,7 +5859,7 @@
         <v>6</v>
       </c>
       <c r="J136" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5885,7 +5885,7 @@
         <v>241</v>
       </c>
       <c r="J137" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">

--- a/public/files/instrumentos.xlsx
+++ b/public/files/instrumentos.xlsx
@@ -1812,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" topLeftCell="D125" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,7 +3057,7 @@
         <v>6</v>
       </c>
       <c r="J41" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>6</v>
       </c>
       <c r="J42" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="J43" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3147,7 +3147,7 @@
         <v>6</v>
       </c>
       <c r="J44" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3177,7 +3177,7 @@
         <v>6</v>
       </c>
       <c r="J45" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="J46" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>6</v>
       </c>
       <c r="J47" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3267,7 +3267,7 @@
         <v>6</v>
       </c>
       <c r="J48" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3297,7 +3297,7 @@
         <v>6</v>
       </c>
       <c r="J49" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="J50" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3357,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="J51" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3387,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="J52" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="J54" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3477,7 +3477,7 @@
         <v>6</v>
       </c>
       <c r="J55" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3537,7 +3537,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
         <v>6</v>
       </c>
       <c r="J58" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3597,7 +3597,7 @@
         <v>6</v>
       </c>
       <c r="J59" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>6</v>
       </c>
       <c r="J60" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>6</v>
       </c>
       <c r="J61" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3687,7 +3687,7 @@
         <v>6</v>
       </c>
       <c r="J62" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
         <v>6</v>
       </c>
       <c r="J63" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>6</v>
       </c>
       <c r="J64" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3777,7 +3777,7 @@
         <v>6</v>
       </c>
       <c r="J65" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3807,7 +3807,7 @@
         <v>6</v>
       </c>
       <c r="J66" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
         <v>6</v>
       </c>
       <c r="J67" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3867,7 +3867,7 @@
         <v>6</v>
       </c>
       <c r="J68" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3897,7 +3897,7 @@
         <v>6</v>
       </c>
       <c r="J69" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3927,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="J70" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3957,7 +3957,7 @@
         <v>6</v>
       </c>
       <c r="J71" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
         <v>6</v>
       </c>
       <c r="J72" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="J73" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4047,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="J74" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4077,7 +4077,7 @@
         <v>6</v>
       </c>
       <c r="J75" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4107,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="J76" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4137,7 +4137,7 @@
         <v>6</v>
       </c>
       <c r="J77" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4167,7 +4167,7 @@
         <v>6</v>
       </c>
       <c r="J78" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4197,7 +4197,7 @@
         <v>6</v>
       </c>
       <c r="J79" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4227,7 +4227,7 @@
         <v>6</v>
       </c>
       <c r="J80" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4257,7 +4257,7 @@
         <v>6</v>
       </c>
       <c r="J81" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
         <v>6</v>
       </c>
       <c r="J82" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4317,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="J83" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4347,7 +4347,7 @@
         <v>6</v>
       </c>
       <c r="J84" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4377,7 +4377,7 @@
         <v>6</v>
       </c>
       <c r="J85" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>6</v>
       </c>
       <c r="J86" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4437,7 +4437,7 @@
         <v>6</v>
       </c>
       <c r="J87" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4467,7 +4467,7 @@
         <v>6</v>
       </c>
       <c r="J88" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4497,7 +4497,7 @@
         <v>6</v>
       </c>
       <c r="J89" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4527,7 +4527,7 @@
         <v>6</v>
       </c>
       <c r="J90" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4557,7 +4557,7 @@
         <v>6</v>
       </c>
       <c r="J91" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4587,7 +4587,7 @@
         <v>6</v>
       </c>
       <c r="J92" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4647,7 +4647,7 @@
         <v>6</v>
       </c>
       <c r="J94" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4677,7 +4677,7 @@
         <v>6</v>
       </c>
       <c r="J95" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4707,7 +4707,7 @@
         <v>6</v>
       </c>
       <c r="J96" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4737,7 +4737,7 @@
         <v>6</v>
       </c>
       <c r="J97" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4767,7 +4767,7 @@
         <v>6</v>
       </c>
       <c r="J98" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4797,7 +4797,7 @@
         <v>6</v>
       </c>
       <c r="J99" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4827,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="J100" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4857,7 +4857,7 @@
         <v>6</v>
       </c>
       <c r="J101" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -4887,7 +4887,7 @@
         <v>6</v>
       </c>
       <c r="J102" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4917,7 +4917,7 @@
         <v>6</v>
       </c>
       <c r="J103" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -4947,7 +4947,7 @@
         <v>6</v>
       </c>
       <c r="J104" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4977,7 +4977,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -5007,7 +5007,7 @@
         <v>6</v>
       </c>
       <c r="J106" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -5037,7 +5037,7 @@
         <v>6</v>
       </c>
       <c r="J107" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -5067,7 +5067,7 @@
         <v>6</v>
       </c>
       <c r="J108" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -5097,7 +5097,7 @@
         <v>6</v>
       </c>
       <c r="J109" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -5127,7 +5127,7 @@
         <v>6</v>
       </c>
       <c r="J110" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -5157,7 +5157,7 @@
         <v>6</v>
       </c>
       <c r="J111" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -5187,7 +5187,7 @@
         <v>6</v>
       </c>
       <c r="J112" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5217,7 +5217,7 @@
         <v>6</v>
       </c>
       <c r="J113" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5247,7 +5247,7 @@
         <v>6</v>
       </c>
       <c r="J114" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
         <v>6</v>
       </c>
       <c r="J115" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5307,7 +5307,7 @@
         <v>6</v>
       </c>
       <c r="J116" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5337,7 +5337,7 @@
         <v>6</v>
       </c>
       <c r="J117" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -5367,7 +5367,7 @@
         <v>6</v>
       </c>
       <c r="J118" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
         <v>6</v>
       </c>
       <c r="J119" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -5427,7 +5427,7 @@
         <v>6</v>
       </c>
       <c r="J120" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -5457,7 +5457,7 @@
         <v>6</v>
       </c>
       <c r="J121" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
         <v>6</v>
       </c>
       <c r="J122" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -5517,7 +5517,7 @@
         <v>6</v>
       </c>
       <c r="J123" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -5547,7 +5547,7 @@
         <v>6</v>
       </c>
       <c r="J124" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -5573,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="J125" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -5599,7 +5599,7 @@
         <v>6</v>
       </c>
       <c r="J126" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5625,7 +5625,7 @@
         <v>6</v>
       </c>
       <c r="J127" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5651,7 +5651,7 @@
         <v>6</v>
       </c>
       <c r="J128" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5675,7 +5675,7 @@
         <v>6</v>
       </c>
       <c r="J129" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5701,7 +5701,7 @@
         <v>6</v>
       </c>
       <c r="J130" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5731,7 +5731,7 @@
         <v>6</v>
       </c>
       <c r="J131" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5755,7 +5755,7 @@
         <v>6</v>
       </c>
       <c r="J132" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -5779,7 +5779,7 @@
         <v>6</v>
       </c>
       <c r="J133" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -5803,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="J134" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5833,7 +5833,7 @@
         <v>6</v>
       </c>
       <c r="J135" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5859,7 +5859,7 @@
         <v>6</v>
       </c>
       <c r="J136" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5885,7 +5885,7 @@
         <v>241</v>
       </c>
       <c r="J137" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
